--- a/Tai/Tia_R_format.xlsx
+++ b/Tai/Tia_R_format.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Multigenerational_analysis/life-history-traits-analysis/Tai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{8EEE6BB7-1A14-497B-938E-513548030709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16CFA89E-97CD-46F8-B61A-962477BAA92D}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{8EEE6BB7-1A14-497B-938E-513548030709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{233EB449-A9CB-431C-9B5D-B9372CC67FDB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F89FABE7-B489-452F-A17A-B0F28BF51457}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{F89FABE7-B489-452F-A17A-B0F28BF51457}"/>
   </bookViews>
   <sheets>
     <sheet name="MP" sheetId="1" r:id="rId1"/>
+    <sheet name="PE_abu" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="21">
   <si>
     <t>Replicates</t>
   </si>
@@ -78,6 +79,27 @@
   </si>
   <si>
     <t>PET</t>
+  </si>
+  <si>
+    <t>Genotype</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Day_1brood</t>
+  </si>
+  <si>
+    <t>fecundity</t>
+  </si>
+  <si>
+    <t>LRV_0_1</t>
+  </si>
+  <si>
+    <t>LR2_36_1</t>
+  </si>
+  <si>
+    <t>PE</t>
   </si>
 </sst>
 </file>
@@ -119,9 +141,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC70339C-4F89-46E2-B42A-336FEDF6DCB0}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -637,7 +665,7 @@
         <v>12</v>
       </c>
       <c r="J6">
-        <f>(F6+I6)</f>
+        <f t="shared" ref="J6:J15" si="1">(F6+I6)</f>
         <v>28</v>
       </c>
     </row>
@@ -670,7 +698,7 @@
         <v>11</v>
       </c>
       <c r="J7">
-        <f>(F7+I7)</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
@@ -703,7 +731,7 @@
         <v>20</v>
       </c>
       <c r="J8">
-        <f>(F8+I8)</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
@@ -736,7 +764,7 @@
         <v>19</v>
       </c>
       <c r="J9">
-        <f>(F9+I9)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
     </row>
@@ -769,7 +797,7 @@
         <v>28</v>
       </c>
       <c r="J10">
-        <f>(F10+I10)</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
     </row>
@@ -802,7 +830,7 @@
         <v>22</v>
       </c>
       <c r="J11">
-        <f>(F11+I11)</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
     </row>
@@ -835,7 +863,7 @@
         <v>28</v>
       </c>
       <c r="J12">
-        <f>(F12+I12)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
     </row>
@@ -864,7 +892,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1">
-        <f>(F13+I13)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -897,7 +925,7 @@
         <v>22</v>
       </c>
       <c r="J14">
-        <f>(F14+I14)</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
@@ -930,8 +958,572 @@
         <v>10</v>
       </c>
       <c r="J15">
-        <f>(F15+I15)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E365E45-3217-463F-91C2-83E3985BCCB5}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3385.58</v>
+      </c>
+      <c r="F2" s="2">
+        <f t="shared" ref="F2:F17" si="0">(E2/1000)</f>
+        <v>3.38558</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2">
+        <f>(H2+J2)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3641.01</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6410100000000001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K17" si="1">(H3+J3)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3496.68</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>3.49668</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3695.36</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>3.69536</v>
+      </c>
+      <c r="G5" s="2">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3399.68</v>
+      </c>
+      <c r="F6" s="3">
+        <f>(E6/1000)</f>
+        <v>3.39968</v>
+      </c>
+      <c r="G6" s="3">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
+        <f>(H6+J6)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3426.91</v>
+      </c>
+      <c r="F7" s="2">
+        <f>(E7/1000)</f>
+        <v>3.4269099999999999</v>
+      </c>
+      <c r="G7" s="2">
+        <v>13</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2">
+        <f>(H7+J7)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3440.28</v>
+      </c>
+      <c r="F8" s="2">
+        <f>(E8/1000)</f>
+        <v>3.44028</v>
+      </c>
+      <c r="G8" s="2">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2">
+        <v>22</v>
+      </c>
+      <c r="K8" s="2">
+        <f>(H8+J8)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3312.46</v>
+      </c>
+      <c r="F9" s="2">
+        <f>(E9/1000)</f>
+        <v>3.3124600000000002</v>
+      </c>
+      <c r="G9" s="2">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2">
+        <v>20</v>
+      </c>
+      <c r="I9" s="2">
+        <v>17</v>
+      </c>
+      <c r="J9" s="2">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2">
+        <f>(H9+J9)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3696.1</v>
+      </c>
+      <c r="F10" s="2">
+        <f>(E10/1000)</f>
+        <v>3.6960999999999999</v>
+      </c>
+      <c r="G10" s="2">
+        <v>11</v>
+      </c>
+      <c r="H10" s="2">
+        <v>28</v>
+      </c>
+      <c r="I10" s="2">
+        <v>14</v>
+      </c>
+      <c r="J10" s="2">
+        <v>30</v>
+      </c>
+      <c r="K10" s="2">
+        <f>(H10+J10)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3213.75</v>
+      </c>
+      <c r="F11" s="2">
+        <f>(E11/1000)</f>
+        <v>3.2137500000000001</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2">
+        <v>27</v>
+      </c>
+      <c r="I11" s="2">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2">
+        <v>28</v>
+      </c>
+      <c r="K11" s="2">
+        <f>(H11+J11)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3585.97</v>
+      </c>
+      <c r="F12" s="2">
+        <f>(E12/1000)</f>
+        <v>3.5859699999999997</v>
+      </c>
+      <c r="G12" s="2">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2">
+        <v>29</v>
+      </c>
+      <c r="I12" s="2">
+        <v>13</v>
+      </c>
+      <c r="J12" s="2">
+        <v>32</v>
+      </c>
+      <c r="K12" s="2">
+        <f>(H12+J12)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3571.93</v>
+      </c>
+      <c r="F13" s="2">
+        <f>(E13/1000)</f>
+        <v>3.57193</v>
+      </c>
+      <c r="G13" s="2">
+        <v>16</v>
+      </c>
+      <c r="H13" s="2">
+        <v>16</v>
+      </c>
+      <c r="I13" s="2">
+        <v>19</v>
+      </c>
+      <c r="J13" s="2">
+        <v>19</v>
+      </c>
+      <c r="K13" s="2">
+        <f>(H13+J13)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2417.08</v>
+      </c>
+      <c r="F14" s="2">
+        <f>(E14/1000)</f>
+        <v>2.4170799999999999</v>
+      </c>
+      <c r="G14" s="2">
+        <v>10</v>
+      </c>
+      <c r="H14" s="2">
+        <v>20</v>
+      </c>
+      <c r="I14" s="2">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2">
+        <v>21</v>
+      </c>
+      <c r="K14" s="2">
+        <f>(H14+J14)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3459.21</v>
+      </c>
+      <c r="F15" s="2">
+        <f>(E15/1000)</f>
+        <v>3.4592100000000001</v>
+      </c>
+      <c r="G15" s="2">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2">
+        <v>22</v>
+      </c>
+      <c r="I15" s="2">
+        <v>13</v>
+      </c>
+      <c r="J15" s="2">
+        <v>27</v>
+      </c>
+      <c r="K15" s="2">
+        <f>(H15+J15)</f>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Tai/Tia_R_format.xlsx
+++ b/Tai/Tia_R_format.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Multigenerational_analysis/life-history-traits-analysis/Tai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{8EEE6BB7-1A14-497B-938E-513548030709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{233EB449-A9CB-431C-9B5D-B9372CC67FDB}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{8EEE6BB7-1A14-497B-938E-513548030709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01CF6688-EF6F-4050-B42B-14383BDDE5B6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{F89FABE7-B489-452F-A17A-B0F28BF51457}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{F89FABE7-B489-452F-A17A-B0F28BF51457}"/>
   </bookViews>
   <sheets>
     <sheet name="MP" sheetId="1" r:id="rId1"/>
     <sheet name="PE_abu" sheetId="2" r:id="rId2"/>
+    <sheet name="MP_PFOA_Tia" sheetId="3" r:id="rId3"/>
+    <sheet name="PFOS_PFOA_abu" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="23">
   <si>
     <t>Replicates</t>
   </si>
@@ -100,6 +102,12 @@
   </si>
   <si>
     <t>PE</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>PFOS+PFOA</t>
   </si>
 </sst>
 </file>
@@ -165,6 +173,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -971,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E365E45-3217-463F-91C2-83E3985BCCB5}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -1029,7 +1041,7 @@
         <v>3385.58</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F17" si="0">(E2/1000)</f>
+        <f t="shared" ref="F2:F5" si="0">(E2/1000)</f>
         <v>3.38558</v>
       </c>
       <c r="G2" s="2">
@@ -1082,7 +1094,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K17" si="1">(H3+J3)</f>
+        <f t="shared" ref="K3:K5" si="1">(H3+J3)</f>
         <v>65</v>
       </c>
     </row>
@@ -1177,7 +1189,7 @@
         <v>3399.68</v>
       </c>
       <c r="F6" s="3">
-        <f>(E6/1000)</f>
+        <f t="shared" ref="F6:F15" si="2">(E6/1000)</f>
         <v>3.39968</v>
       </c>
       <c r="G6" s="3">
@@ -1189,7 +1201,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3">
-        <f>(H6+J6)</f>
+        <f t="shared" ref="K6:K15" si="3">(H6+J6)</f>
         <v>6</v>
       </c>
     </row>
@@ -1210,7 +1222,7 @@
         <v>3426.91</v>
       </c>
       <c r="F7" s="2">
-        <f>(E7/1000)</f>
+        <f t="shared" si="2"/>
         <v>3.4269099999999999</v>
       </c>
       <c r="G7" s="2">
@@ -1226,7 +1238,7 @@
         <v>25</v>
       </c>
       <c r="K7" s="2">
-        <f>(H7+J7)</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
@@ -1247,7 +1259,7 @@
         <v>3440.28</v>
       </c>
       <c r="F8" s="2">
-        <f>(E8/1000)</f>
+        <f t="shared" si="2"/>
         <v>3.44028</v>
       </c>
       <c r="G8" s="2">
@@ -1263,7 +1275,7 @@
         <v>22</v>
       </c>
       <c r="K8" s="2">
-        <f>(H8+J8)</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
     </row>
@@ -1284,7 +1296,7 @@
         <v>3312.46</v>
       </c>
       <c r="F9" s="2">
-        <f>(E9/1000)</f>
+        <f t="shared" si="2"/>
         <v>3.3124600000000002</v>
       </c>
       <c r="G9" s="2">
@@ -1300,7 +1312,7 @@
         <v>20</v>
       </c>
       <c r="K9" s="2">
-        <f>(H9+J9)</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
@@ -1321,7 +1333,7 @@
         <v>3696.1</v>
       </c>
       <c r="F10" s="2">
-        <f>(E10/1000)</f>
+        <f t="shared" si="2"/>
         <v>3.6960999999999999</v>
       </c>
       <c r="G10" s="2">
@@ -1337,7 +1349,7 @@
         <v>30</v>
       </c>
       <c r="K10" s="2">
-        <f>(H10+J10)</f>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -1358,7 +1370,7 @@
         <v>3213.75</v>
       </c>
       <c r="F11" s="2">
-        <f>(E11/1000)</f>
+        <f t="shared" si="2"/>
         <v>3.2137500000000001</v>
       </c>
       <c r="G11" s="2">
@@ -1374,7 +1386,7 @@
         <v>28</v>
       </c>
       <c r="K11" s="2">
-        <f>(H11+J11)</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
     </row>
@@ -1395,7 +1407,7 @@
         <v>3585.97</v>
       </c>
       <c r="F12" s="2">
-        <f>(E12/1000)</f>
+        <f t="shared" si="2"/>
         <v>3.5859699999999997</v>
       </c>
       <c r="G12" s="2">
@@ -1411,7 +1423,7 @@
         <v>32</v>
       </c>
       <c r="K12" s="2">
-        <f>(H12+J12)</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
     </row>
@@ -1432,7 +1444,7 @@
         <v>3571.93</v>
       </c>
       <c r="F13" s="2">
-        <f>(E13/1000)</f>
+        <f t="shared" si="2"/>
         <v>3.57193</v>
       </c>
       <c r="G13" s="2">
@@ -1448,7 +1460,7 @@
         <v>19</v>
       </c>
       <c r="K13" s="2">
-        <f>(H13+J13)</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
@@ -1469,7 +1481,7 @@
         <v>2417.08</v>
       </c>
       <c r="F14" s="2">
-        <f>(E14/1000)</f>
+        <f t="shared" si="2"/>
         <v>2.4170799999999999</v>
       </c>
       <c r="G14" s="2">
@@ -1485,7 +1497,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="2">
-        <f>(H14+J14)</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
     </row>
@@ -1506,7 +1518,7 @@
         <v>3459.21</v>
       </c>
       <c r="F15" s="2">
-        <f>(E15/1000)</f>
+        <f t="shared" si="2"/>
         <v>3.4592100000000001</v>
       </c>
       <c r="G15" s="2">
@@ -1522,8 +1534,1188 @@
         <v>27</v>
       </c>
       <c r="K15" s="2">
-        <f>(H15+J15)</f>
+        <f t="shared" si="3"/>
         <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E1CE40-25BD-490B-BEB1-7381A86BED5B}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>2590.66</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>26</v>
+      </c>
+      <c r="J2">
+        <f>(F2+I2)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>2583.37</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <f>(F3+I3)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>2601.63</v>
+      </c>
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>26</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J17" si="0">(F4+I4)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <v>2650.88</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>2132.17</v>
+      </c>
+      <c r="H6">
+        <v>17</v>
+      </c>
+      <c r="I6">
+        <v>14</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J13" si="1">(F6+I6)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>2175.6</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>2220.4</v>
+      </c>
+      <c r="H8">
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <v>22</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>2149.64</v>
+      </c>
+      <c r="H9">
+        <v>14</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>28</v>
+      </c>
+      <c r="G10">
+        <v>2539.61</v>
+      </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>19</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>2544.69</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <v>28</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>29</v>
+      </c>
+      <c r="G12">
+        <v>2606.88</v>
+      </c>
+      <c r="H12">
+        <v>13</v>
+      </c>
+      <c r="I12">
+        <v>22</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>2568.98</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>28</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>2259.4299999999998</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <v>17</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>2241.61</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>2277.6799999999998</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>21</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>2306.52</v>
+      </c>
+      <c r="H17">
+        <v>18</v>
+      </c>
+      <c r="I17">
+        <v>11</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D84CB4-C01C-4D8B-B304-C3713B9EAFF9}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>3385.58</v>
+      </c>
+      <c r="F2">
+        <f>E2/1000</f>
+        <v>3.38558</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>29</v>
+      </c>
+      <c r="I2">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>33</v>
+      </c>
+      <c r="K2">
+        <f>H2+J2</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>3641.01</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F17" si="0">E3/1000</f>
+        <v>3.6410100000000001</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>35</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K17" si="1">H3+J3</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>3496.68</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>3.49668</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>3695.36</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>3.69536</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>27</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>31</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>3516.58</v>
+      </c>
+      <c r="F6">
+        <f>E6/1000</f>
+        <v>3.5165799999999998</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>21</v>
+      </c>
+      <c r="K6">
+        <f>H6+J6</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>3392.14</v>
+      </c>
+      <c r="F7">
+        <f>E7/1000</f>
+        <v>3.3921399999999999</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>21</v>
+      </c>
+      <c r="J7">
+        <v>14</v>
+      </c>
+      <c r="K7">
+        <f>H7+J7</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>3604.58</v>
+      </c>
+      <c r="F8">
+        <f>E8/1000</f>
+        <v>3.6045799999999999</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>21</v>
+      </c>
+      <c r="J8">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <f>H8+J8</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>3461.98</v>
+      </c>
+      <c r="F9">
+        <f>E9/1000</f>
+        <v>3.4619800000000001</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>19</v>
+      </c>
+      <c r="J9">
+        <v>17</v>
+      </c>
+      <c r="K9">
+        <f>H9+J9</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>3696.1</v>
+      </c>
+      <c r="F10">
+        <f>E10/1000</f>
+        <v>3.6960999999999999</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>14</v>
+      </c>
+      <c r="J10">
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <f>H10+J10</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>3213.75</v>
+      </c>
+      <c r="F11">
+        <f>E11/1000</f>
+        <v>3.2137500000000001</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>27</v>
+      </c>
+      <c r="I11">
+        <v>13</v>
+      </c>
+      <c r="J11">
+        <v>28</v>
+      </c>
+      <c r="K11">
+        <f>H11+J11</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>3585.97</v>
+      </c>
+      <c r="F12">
+        <f>E12/1000</f>
+        <v>3.5859699999999997</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>29</v>
+      </c>
+      <c r="I12">
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <v>32</v>
+      </c>
+      <c r="K12">
+        <f>H12+J12</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>2256.2800000000002</v>
+      </c>
+      <c r="F13">
+        <f>E13/1000</f>
+        <v>2.2562800000000003</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>16</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <f>H13+J13</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>2317.12</v>
+      </c>
+      <c r="F14">
+        <f>E14/1000</f>
+        <v>2.3171200000000001</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>16</v>
+      </c>
+      <c r="J14">
+        <v>19</v>
+      </c>
+      <c r="K14">
+        <f>H14+J14</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>2324.5300000000002</v>
+      </c>
+      <c r="F15">
+        <f>E15/1000</f>
+        <v>2.3245300000000002</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>19</v>
+      </c>
+      <c r="I15">
+        <v>16</v>
+      </c>
+      <c r="J15">
+        <v>19</v>
+      </c>
+      <c r="K15">
+        <f>H15+J15</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>3578.85</v>
+      </c>
+      <c r="F16">
+        <f>E16/1000</f>
+        <v>3.5788500000000001</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>16</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <f>H16+J16</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Tai/Tia_R_format.xlsx
+++ b/Tai/Tia_R_format.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Multigenerational_analysis/life-history-traits-analysis/Tai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{8EEE6BB7-1A14-497B-938E-513548030709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01CF6688-EF6F-4050-B42B-14383BDDE5B6}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{8EEE6BB7-1A14-497B-938E-513548030709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CA7CBDE-021B-4960-BE47-DDC869BE918F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{F89FABE7-B489-452F-A17A-B0F28BF51457}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{F89FABE7-B489-452F-A17A-B0F28BF51457}"/>
   </bookViews>
   <sheets>
     <sheet name="MP" sheetId="1" r:id="rId1"/>
     <sheet name="PE_abu" sheetId="2" r:id="rId2"/>
     <sheet name="MP_PFOA_Tia" sheetId="3" r:id="rId3"/>
     <sheet name="PFOS_PFOA_abu" sheetId="4" r:id="rId4"/>
+    <sheet name="MP+PFOS+PFOA_Tia" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="24">
   <si>
     <t>Replicates</t>
   </si>
@@ -109,6 +110,9 @@
   <si>
     <t>PFOS+PFOA</t>
   </si>
+  <si>
+    <t>PC1C2</t>
+  </si>
 </sst>
 </file>
 
@@ -173,10 +177,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2122,7 +2122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D84CB4-C01C-4D8B-B304-C3713B9EAFF9}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -2217,7 +2217,7 @@
         <v>3641.01</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F17" si="0">E3/1000</f>
+        <f t="shared" ref="F3:F5" si="0">E3/1000</f>
         <v>3.6410100000000001</v>
       </c>
       <c r="G3">
@@ -2233,7 +2233,7 @@
         <v>35</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K17" si="1">H3+J3</f>
+        <f t="shared" ref="K3:K5" si="1">H3+J3</f>
         <v>65</v>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
         <v>3516.58</v>
       </c>
       <c r="F6">
-        <f>E6/1000</f>
+        <f t="shared" ref="F6:F16" si="2">E6/1000</f>
         <v>3.5165799999999998</v>
       </c>
       <c r="G6">
@@ -2344,7 +2344,7 @@
         <v>21</v>
       </c>
       <c r="K6">
-        <f>H6+J6</f>
+        <f t="shared" ref="K6:K16" si="3">H6+J6</f>
         <v>36</v>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
         <v>3392.14</v>
       </c>
       <c r="F7">
-        <f>E7/1000</f>
+        <f t="shared" si="2"/>
         <v>3.3921399999999999</v>
       </c>
       <c r="G7">
@@ -2381,7 +2381,7 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <f>H7+J7</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
         <v>3604.58</v>
       </c>
       <c r="F8">
-        <f>E8/1000</f>
+        <f t="shared" si="2"/>
         <v>3.6045799999999999</v>
       </c>
       <c r="G8">
@@ -2418,7 +2418,7 @@
         <v>17</v>
       </c>
       <c r="K8">
-        <f>H8+J8</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
         <v>3461.98</v>
       </c>
       <c r="F9">
-        <f>E9/1000</f>
+        <f t="shared" si="2"/>
         <v>3.4619800000000001</v>
       </c>
       <c r="G9">
@@ -2455,7 +2455,7 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <f>H9+J9</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
         <v>3696.1</v>
       </c>
       <c r="F10">
-        <f>E10/1000</f>
+        <f t="shared" si="2"/>
         <v>3.6960999999999999</v>
       </c>
       <c r="G10">
@@ -2492,7 +2492,7 @@
         <v>30</v>
       </c>
       <c r="K10">
-        <f>H10+J10</f>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -2513,7 +2513,7 @@
         <v>3213.75</v>
       </c>
       <c r="F11">
-        <f>E11/1000</f>
+        <f t="shared" si="2"/>
         <v>3.2137500000000001</v>
       </c>
       <c r="G11">
@@ -2529,7 +2529,7 @@
         <v>28</v>
       </c>
       <c r="K11">
-        <f>H11+J11</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
     </row>
@@ -2550,7 +2550,7 @@
         <v>3585.97</v>
       </c>
       <c r="F12">
-        <f>E12/1000</f>
+        <f t="shared" si="2"/>
         <v>3.5859699999999997</v>
       </c>
       <c r="G12">
@@ -2566,7 +2566,7 @@
         <v>32</v>
       </c>
       <c r="K12">
-        <f>H12+J12</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
         <v>2256.2800000000002</v>
       </c>
       <c r="F13">
-        <f>E13/1000</f>
+        <f t="shared" si="2"/>
         <v>2.2562800000000003</v>
       </c>
       <c r="G13">
@@ -2603,7 +2603,7 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <f>H13+J13</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
     </row>
@@ -2624,7 +2624,7 @@
         <v>2317.12</v>
       </c>
       <c r="F14">
-        <f>E14/1000</f>
+        <f t="shared" si="2"/>
         <v>2.3171200000000001</v>
       </c>
       <c r="G14">
@@ -2640,7 +2640,7 @@
         <v>19</v>
       </c>
       <c r="K14">
-        <f>H14+J14</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
         <v>2324.5300000000002</v>
       </c>
       <c r="F15">
-        <f>E15/1000</f>
+        <f t="shared" si="2"/>
         <v>2.3245300000000002</v>
       </c>
       <c r="G15">
@@ -2677,7 +2677,7 @@
         <v>19</v>
       </c>
       <c r="K15">
-        <f>H15+J15</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
         <v>3578.85</v>
       </c>
       <c r="F16">
-        <f>E16/1000</f>
+        <f t="shared" si="2"/>
         <v>3.5788500000000001</v>
       </c>
       <c r="G16">
@@ -2714,8 +2714,482 @@
         <v>5</v>
       </c>
       <c r="K16">
-        <f>H16+J16</f>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3693F4-A60E-4949-8731-31CC2EF22227}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>2590.66</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>26</v>
+      </c>
+      <c r="J2">
+        <f>(F2+I2)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>2583.37</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J5" si="0">(F3+I3)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>2601.63</v>
+      </c>
+      <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <v>26</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <v>2650.88</v>
+      </c>
+      <c r="H5">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>2241.38</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J14" si="1">(F6+I6)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2669.78</v>
+      </c>
+      <c r="H7">
+        <v>19</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>2539.61</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <v>2544.69</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>28</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>2606.88</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>22</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>2568.98</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <v>28</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>2328.1999999999998</v>
+      </c>
+      <c r="H12">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>2296.29</v>
+      </c>
+      <c r="H13">
+        <v>14</v>
+      </c>
+      <c r="I13">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>2199.3000000000002</v>
+      </c>
+      <c r="H14">
+        <v>24</v>
+      </c>
+      <c r="I14">
+        <v>17</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Tai/Tia_R_format.xlsx
+++ b/Tai/Tia_R_format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Multigenerational_analysis/life-history-traits-analysis/Tai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{8EEE6BB7-1A14-497B-938E-513548030709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CA7CBDE-021B-4960-BE47-DDC869BE918F}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{8EEE6BB7-1A14-497B-938E-513548030709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1139349-E533-4E06-B457-E875806847EA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{F89FABE7-B489-452F-A17A-B0F28BF51457}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{F89FABE7-B489-452F-A17A-B0F28BF51457}"/>
   </bookViews>
   <sheets>
     <sheet name="MP" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="MP_PFOA_Tia" sheetId="3" r:id="rId3"/>
     <sheet name="PFOS_PFOA_abu" sheetId="4" r:id="rId4"/>
     <sheet name="MP+PFOS+PFOA_Tia" sheetId="5" r:id="rId5"/>
+    <sheet name="PFOS_abu" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="25">
   <si>
     <t>Replicates</t>
   </si>
@@ -112,6 +113,9 @@
   </si>
   <si>
     <t>PC1C2</t>
+  </si>
+  <si>
+    <t>PFOS</t>
   </si>
 </sst>
 </file>
@@ -2727,7 +2731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3693F4-A60E-4949-8731-31CC2EF22227}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -3195,4 +3199,483 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5308C0C3-0380-4858-86EF-79760918E3AB}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>3385.58</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>29</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>3641.01</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>3496.68</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>3695.36</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>3932.05</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>21</v>
+      </c>
+      <c r="H6">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>3708.58</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>22</v>
+      </c>
+      <c r="I7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>3429.93</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>3721.1</v>
+      </c>
+      <c r="F9">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>21</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>3696.1</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>28</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>3213.75</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>27</v>
+      </c>
+      <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>3585.97</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>29</v>
+      </c>
+      <c r="H12">
+        <v>13</v>
+      </c>
+      <c r="I12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>2526.59</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>17</v>
+      </c>
+      <c r="H13">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>2384.38</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>17</v>
+      </c>
+      <c r="H14">
+        <v>16</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>2499.6999999999998</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>19</v>
+      </c>
+      <c r="H15">
+        <v>16</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>3650.13</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>19</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>